--- a/dataCleaner/Case-MovingDataInRoom/figures/tag1_2022-02-04_time.xlsx
+++ b/dataCleaner/Case-MovingDataInRoom/figures/tag1_2022-02-04_time.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,32 +446,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44596.60902777778</v>
+        <v>44596.49479166666</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44596.69236111111</v>
+        <v>44596.49513888889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44596.35902777778</v>
+        <v>44596.58090277778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44596.43958333333</v>
+        <v>44596.59340277778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44596.45833333334</v>
+        <v>44596.60902777778</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44596.46111111111</v>
+        <v>44596.69340277778</v>
       </c>
     </row>
     <row r="5">
@@ -479,10 +479,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44596.47083333333</v>
+        <v>44596.359375</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44596.49305555555</v>
+        <v>44596.43993055556</v>
       </c>
     </row>
     <row r="6">
@@ -490,10 +490,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44596.525</v>
+        <v>44596.45590277778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44596.53194444445</v>
+        <v>44596.4625</v>
       </c>
     </row>
     <row r="7">
@@ -501,10 +501,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44596.55347222222</v>
+        <v>44596.47083333333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44596.57916666667</v>
+        <v>44596.50034722222</v>
       </c>
     </row>
     <row r="8">
@@ -512,76 +512,76 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44596.69583333333</v>
+        <v>44596.525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44596.69652777778</v>
+        <v>44596.53402777778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44596.44027777778</v>
+        <v>44596.55277777778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44596.45486111111</v>
+        <v>44596.57951388889</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44596.50138888889</v>
+        <v>44596.69513888889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44596.52361111111</v>
+        <v>44596.69652777778</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44596.53680555556</v>
+        <v>44596.44027777778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44596.54861111111</v>
+        <v>44596.45520833333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44596.59375</v>
+        <v>44596.50104166667</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44596.60347222222</v>
+        <v>44596.52673611111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44596.35763888889</v>
+        <v>44596.53472222222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44596.35833333333</v>
+        <v>44596.53680555556</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44596.42916666667</v>
+        <v>44596.53715277778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44596.43402777778</v>
+        <v>44596.54930555556</v>
       </c>
     </row>
     <row r="15">
@@ -589,54 +589,54 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44596.46388888889</v>
+        <v>44596.59375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44596.47013888889</v>
+        <v>44596.60416666666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44596.55972222222</v>
+        <v>44596.46493055556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44596.56388888889</v>
+        <v>44596.46979166667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44596.58819444444</v>
+        <v>44596.35763888889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44596.59027777778</v>
+        <v>44596.35902777778</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44596.56111111111</v>
+        <v>44596.42951388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44596.5625</v>
+        <v>44596.43472222222</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44596.58055555556</v>
+        <v>44596.46388888889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44596.58680555555</v>
+        <v>44596.47048611111</v>
       </c>
     </row>
     <row r="20">
@@ -644,10 +644,98 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44596.60486111111</v>
+        <v>44596.52743055556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44596.60763888889</v>
+        <v>44596.528125</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44596.55034722222</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>44596.55243055556</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44596.55972222222</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>44596.56666666667</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44596.58819444444</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>44596.59097222222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>44596.69375</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>44596.69479166667</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>44596.60520833333</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>44596.60798611111</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44596.45625</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>44596.45833333334</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>44596.49722222222</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>44596.49895833333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>44596.56145833333</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>44596.56284722222</v>
       </c>
     </row>
   </sheetData>
